--- a/pred_ohlcv/54_21/2019-10-30 TRUE ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-30 TRUE ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>14010.86678517841</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>14949.62658517841</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>14017.37788517841</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>13282.06578517841</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -600,7 +600,7 @@
         <v>13771.11117768487</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>13771.11117768487</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -678,7 +678,7 @@
         <v>17423.37887255667</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>16496.99677255667</v>
       </c>
       <c r="H12">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>16496.99677255667</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>16493.87267255667</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>16910.70007255667</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>19135.89047255667</v>
       </c>
       <c r="H16">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>19135.89047255667</v>
       </c>
       <c r="H17">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>16874.27937255667</v>
       </c>
       <c r="H18">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>16875.76267255667</v>
       </c>
       <c r="H19">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>16872.07267255667</v>
       </c>
       <c r="H20">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>16305.76577255667</v>
       </c>
       <c r="H21">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>13727.47657255667</v>
       </c>
       <c r="H22">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>16904.66947255667</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>16673.45967255667</v>
       </c>
       <c r="H26">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>16237.50567255667</v>
       </c>
       <c r="H27">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>16472.26427255668</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>16334.21227255668</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>16334.21227255668</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>16334.21227255668</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>19371.07247255668</v>
       </c>
       <c r="H39">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>19950.56387255668</v>
       </c>
       <c r="H42">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>14494.19557255667</v>
       </c>
       <c r="H43">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>13876.90887255668</v>
       </c>
       <c r="H47">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>-6425.67022744332</v>
       </c>
       <c r="H127">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>-6425.67022744332</v>
       </c>
       <c r="H128">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>-6425.67022744332</v>
       </c>
       <c r="H129">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>-6425.67022744332</v>
       </c>
       <c r="H130">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>-6425.67022744332</v>
       </c>
       <c r="H131">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>-6425.67022744332</v>
       </c>
       <c r="H132">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>-6425.67022744332</v>
       </c>
       <c r="H133">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>-6425.67022744332</v>
       </c>
       <c r="H134">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>-8449.28222744332</v>
       </c>
       <c r="H139">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="140" spans="1:8">

--- a/pred_ohlcv/54_21/2019-10-30 TRUE ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-30 TRUE ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>14010.86678517841</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>14949.62658517841</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>14017.37788517841</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>13282.06578517841</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -574,7 +574,7 @@
         <v>14001.86757768487</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>13771.11117768487</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>13771.11117768487</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>17021.61987255667</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>17423.37887255667</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>16496.99677255667</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>16496.99677255667</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>16493.87267255667</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>16910.70007255667</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>19135.89047255667</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>19135.89047255667</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>16874.27937255667</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>16875.76267255667</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>16872.07267255667</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>16305.76577255667</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>13727.47657255667</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>16904.66947255667</v>
       </c>
       <c r="H24">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>16472.26427255668</v>
       </c>
       <c r="H30">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>16334.21227255668</v>
       </c>
       <c r="H31">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>16334.21227255668</v>
       </c>
       <c r="H32">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>16334.21227255668</v>
       </c>
       <c r="H33">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>-6425.67022744332</v>
       </c>
       <c r="H130">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>-6425.67022744332</v>
       </c>
       <c r="H131">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>-6425.67022744332</v>
       </c>
       <c r="H132">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>-6425.67022744332</v>
       </c>
       <c r="H133">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>-6425.67022744332</v>
       </c>
       <c r="H134">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>-8449.28222744332</v>
       </c>
       <c r="H139">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:8">
